--- a/biology/Zoologie/Daphnis_(genre)/Daphnis_(genre).xlsx
+++ b/biology/Zoologie/Daphnis_(genre)/Daphnis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Daphnis regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae et de la tribu des Macroglossini.
 </t>
@@ -511,13 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Daphnis a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type pour le genre est Daphnis nerii (Linnaeus, 1758)
-Synonymie
-Regia Tutt, 1903[2]
-Histriosphinx Varis, 1976[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Daphnis a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type pour le genre est Daphnis nerii (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
@@ -542,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Regia Tutt, 1903
+Histriosphinx Varis, 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daphnis_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphnis dohertyi - Rothschild, 1897
 Daphnis hayesi - Cadiou, 1988
